--- a/medicine/Enfance/Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse/Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse.xlsx
+++ b/medicine/Enfance/Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse/Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_TD_de_litt%C3%A9rature_canadienne_pour_l%27enfance_et_la_jeunesse</t>
+          <t>Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix TD de littérature canadienne pour l’enfance et la jeunesse a été créé en 2004 conjointement par le Centre canadien du livre jeunesse et le groupe financier Banque TD[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix TD de littérature canadienne pour l’enfance et la jeunesse a été créé en 2004 conjointement par le Centre canadien du livre jeunesse et le groupe financier Banque TD. 
 Il est décerné au livre jeunesse qui s'est le plus distingué par la qualité du texte et des illustrations et par son originalité. 
-Il comporte un volet francophone et un volet anglophone[2].
+Il comporte un volet francophone et un volet anglophone.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_TD_de_litt%C3%A9rature_canadienne_pour_l%27enfance_et_la_jeunesse</t>
+          <t>Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lauréats francophones</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2005 : François Barcelo (texte), Anne Villeneuve (illustrations) - Le Nul et la Chipie
 2006 : François Gravel (texte), Pierre Pratt (illustrations) - David et le Salon funéraire
@@ -529,9 +543,9 @@
 2016 : Jacques Goldstyn - L’Arbragan
 2017 : Larry Tremblay (texte), Guillaume Perreault (illustrations) - Même pas vrai
 2018 : Marianne Dubuc - Le chemin de la montagne
-2019 : Stéphanie Boulay (texte), Agathe Bray-Bourret (illustrations) - Anatole qui ne séchait jamais[3]
-2020 : Jacques Goldstyn - Les étoiles[4]
-2021 : Vigg - Ma maison-tête[5]</t>
+2019 : Stéphanie Boulay (texte), Agathe Bray-Bourret (illustrations) - Anatole qui ne séchait jamais
+2020 : Jacques Goldstyn - Les étoiles
+2021 : Vigg - Ma maison-tête</t>
         </is>
       </c>
     </row>
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_TD_de_litt%C3%A9rature_canadienne_pour_l%27enfance_et_la_jeunesse</t>
+          <t>Prix_TD_de_littérature_canadienne_pour_l'enfance_et_la_jeunesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Lauréats anglophones</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2005 : Marthe Jocelyn - Mable Riley: A Reliable Record of Humdrum, Peril, and Romance
 2006 : Pamela Porter - The Crazy Man
@@ -576,9 +592,9 @@
 2017 : Jan Thornhill - The Tragic Tale of the Great Auk
 2018 : Joanne Schwartz (texte), Sydney Smith (illustrations) - Town Is by the Sea
 2019 : Heather Smith - Ebb and Flow
-2020 : Julie Flett - Birdsong[6]
-2021 : The Fan Brothers - The Barnabus Project[7]
-2022 : David A. Robertson (texte) et Julie Flett (illustrations) - On the Trapline[8]</t>
+2020 : Julie Flett - Birdsong
+2021 : The Fan Brothers - The Barnabus Project
+2022 : David A. Robertson (texte) et Julie Flett (illustrations) - On the Trapline</t>
         </is>
       </c>
     </row>
